--- a/output.xlsx
+++ b/output.xlsx
@@ -13,12 +13,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
-  <si>
-    <t>o1</t>
-  </si>
-  <si>
-    <t>o2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>s5</t>
   </si>
 </sst>
 </file>
@@ -76,29 +85,65 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100.0</v>
+        <v>111.0</v>
       </c>
       <c r="B2" t="n">
-        <v>21.8</v>
+        <v>99.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n">
-        <v>22.2</v>
+        <v>199.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" t="n">
-        <v>82.6</v>
+        <v>299.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -121,13 +166,31 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.8</v>
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -135,7 +198,16 @@
         <v>0.0</v>
       </c>
       <c r="B3" t="n">
-        <v>2.2</v>
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -143,7 +215,16 @@
         <v>0.0</v>
       </c>
       <c r="B4" t="n">
-        <v>2.6</v>
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
